--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H2">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I2">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J2">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.0827798149301</v>
+        <v>34.58696433333333</v>
       </c>
       <c r="N2">
-        <v>11.0827798149301</v>
+        <v>103.760893</v>
       </c>
       <c r="O2">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769325</v>
       </c>
       <c r="P2">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769326</v>
       </c>
       <c r="Q2">
-        <v>108.826440715029</v>
+        <v>867.0194619137648</v>
       </c>
       <c r="R2">
-        <v>108.826440715029</v>
+        <v>7803.175157223882</v>
       </c>
       <c r="S2">
-        <v>0.4976077146633058</v>
+        <v>0.7163429539006443</v>
       </c>
       <c r="T2">
-        <v>0.4976077146633058</v>
+        <v>0.7163429539006444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H3">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I3">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J3">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.199945507091412</v>
+        <v>0.2577526666666667</v>
       </c>
       <c r="N3">
-        <v>0.199945507091412</v>
+        <v>0.773258</v>
       </c>
       <c r="O3">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896046</v>
       </c>
       <c r="P3">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896047</v>
       </c>
       <c r="Q3">
-        <v>1.963348387054209</v>
+        <v>6.461294960910888</v>
       </c>
       <c r="R3">
-        <v>1.963348387054209</v>
+        <v>58.151654648198</v>
       </c>
       <c r="S3">
-        <v>0.008977389111973514</v>
+        <v>0.005338407407955755</v>
       </c>
       <c r="T3">
-        <v>0.008977389111973514</v>
+        <v>0.005338407407955756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H4">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I4">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J4">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.383780770541896</v>
+        <v>0.4442936666666666</v>
       </c>
       <c r="N4">
-        <v>0.383780770541896</v>
+        <v>1.332881</v>
       </c>
       <c r="O4">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="P4">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="Q4">
-        <v>3.768503567731415</v>
+        <v>11.13746936830122</v>
       </c>
       <c r="R4">
-        <v>3.768503567731415</v>
+        <v>100.237224314711</v>
       </c>
       <c r="S4">
-        <v>0.01723144151107362</v>
+        <v>0.009201924589623999</v>
       </c>
       <c r="T4">
-        <v>0.01723144151107362</v>
+        <v>0.009201924589624001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H5">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I5">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J5">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0827798149301</v>
+        <v>34.58696433333333</v>
       </c>
       <c r="N5">
-        <v>11.0827798149301</v>
+        <v>103.760893</v>
       </c>
       <c r="O5">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769325</v>
       </c>
       <c r="P5">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769326</v>
       </c>
       <c r="Q5">
-        <v>9.093988407642223</v>
+        <v>30.88793461383577</v>
       </c>
       <c r="R5">
-        <v>9.093988407642223</v>
+        <v>277.9914115245219</v>
       </c>
       <c r="S5">
-        <v>0.04158216292813575</v>
+        <v>0.02552002036070305</v>
       </c>
       <c r="T5">
-        <v>0.04158216292813575</v>
+        <v>0.02552002036070305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H6">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I6">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J6">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.199945507091412</v>
+        <v>0.2577526666666667</v>
       </c>
       <c r="N6">
-        <v>0.199945507091412</v>
+        <v>0.773258</v>
       </c>
       <c r="O6">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896046</v>
       </c>
       <c r="P6">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896047</v>
       </c>
       <c r="Q6">
-        <v>0.1640655281448371</v>
+        <v>0.2301863626368889</v>
       </c>
       <c r="R6">
-        <v>0.1640655281448371</v>
+        <v>2.071677263732</v>
       </c>
       <c r="S6">
-        <v>0.0007501878401863978</v>
+        <v>0.0001901830191850461</v>
       </c>
       <c r="T6">
-        <v>0.0007501878401863978</v>
+        <v>0.0001901830191850461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H7">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I7">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J7">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.383780770541896</v>
+        <v>0.4442936666666666</v>
       </c>
       <c r="N7">
-        <v>0.383780770541896</v>
+        <v>1.332881</v>
       </c>
       <c r="O7">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="P7">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="Q7">
-        <v>0.3149117763471524</v>
+        <v>0.3967770514082221</v>
       </c>
       <c r="R7">
-        <v>0.3149117763471524</v>
+        <v>3.570993462673999</v>
       </c>
       <c r="S7">
-        <v>0.001439930666840488</v>
+        <v>0.0003278224509728751</v>
       </c>
       <c r="T7">
-        <v>0.001439930666840488</v>
+        <v>0.0003278224509728751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H8">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I8">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J8">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0827798149301</v>
+        <v>34.58696433333333</v>
       </c>
       <c r="N8">
-        <v>11.0827798149301</v>
+        <v>103.760893</v>
       </c>
       <c r="O8">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769325</v>
       </c>
       <c r="P8">
-        <v>0.9499656304122283</v>
+        <v>0.9801058085769326</v>
       </c>
       <c r="Q8">
-        <v>89.83635461072009</v>
+        <v>288.3551417492669</v>
       </c>
       <c r="R8">
-        <v>89.83635461072009</v>
+        <v>2595.196275743402</v>
       </c>
       <c r="S8">
-        <v>0.4107757528207868</v>
+        <v>0.2382428343155852</v>
       </c>
       <c r="T8">
-        <v>0.4107757528207868</v>
+        <v>0.2382428343155852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H9">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I9">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J9">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.199945507091412</v>
+        <v>0.2577526666666667</v>
       </c>
       <c r="N9">
-        <v>0.199945507091412</v>
+        <v>0.773258</v>
       </c>
       <c r="O9">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896046</v>
       </c>
       <c r="P9">
-        <v>0.01713842220670192</v>
+        <v>0.007304049101896047</v>
       </c>
       <c r="Q9">
-        <v>1.620746399173828</v>
+        <v>2.148910960112445</v>
       </c>
       <c r="R9">
-        <v>1.620746399173828</v>
+        <v>19.340198641012</v>
       </c>
       <c r="S9">
-        <v>0.007410845254542013</v>
+        <v>0.001775458674755245</v>
       </c>
       <c r="T9">
-        <v>0.007410845254542013</v>
+        <v>0.001775458674755245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H10">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I10">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J10">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.383780770541896</v>
+        <v>0.4442936666666666</v>
       </c>
       <c r="N10">
-        <v>0.383780770541896</v>
+        <v>1.332881</v>
       </c>
       <c r="O10">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="P10">
-        <v>0.03289594738106979</v>
+        <v>0.01259014232117133</v>
       </c>
       <c r="Q10">
-        <v>3.110904120709054</v>
+        <v>3.704122801737111</v>
       </c>
       <c r="R10">
-        <v>3.110904120709054</v>
+        <v>33.337105215634</v>
       </c>
       <c r="S10">
-        <v>0.01422457520315568</v>
+        <v>0.00306039528057446</v>
       </c>
       <c r="T10">
-        <v>0.01422457520315568</v>
+        <v>0.00306039528057446</v>
       </c>
     </row>
   </sheetData>
